--- a/Data Dict.xlsx
+++ b/Data Dict.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\GitHub\project_1_team_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFFCAE-C79A-4C04-8A35-E665D5E9FADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FAB22-0F81-4287-89E4-5FF3C01BE7D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{057E0442-82FE-4CEC-B12C-1F7326B13776}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Final sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final sheet'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -305,14 +305,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -321,10 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061224B-2C1D-471F-A873-A3BA80894FE7}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,414 +661,402 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
     </row>
